--- a/HSQC_2019_2021.xlsx
+++ b/HSQC_2019_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsono\Documents\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owenl\Documents\R_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DA63F-5147-43CE-9900-0677B7B8EA12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EDCE18-832A-4207-BAD9-18D147AFBC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSQC_2019_2021" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSQC_2019_2021!$A$1:$J$937</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -362,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +552,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -799,7 +817,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -853,6 +871,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1233,7 +1252,7 @@
                   <c:v>9.218</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.6560000000000006</c:v>
+                  <c:v>8.6769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>8.5410000000000004</c:v>
@@ -1377,7 +1396,7 @@
                   <c:v>9.6760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.8610000000000007</c:v>
+                  <c:v>8.8859999999999992</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>8.8049999999999997</c:v>
@@ -2494,16 +2513,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J937"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B938" sqref="B938"/>
+    <sheetView topLeftCell="A636" workbookViewId="0">
+      <selection activeCell="H939" sqref="H939"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2532,7 +2551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2564,7 +2583,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2596,7 +2615,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2628,7 +2647,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2660,7 +2679,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2692,7 +2711,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2724,7 +2743,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2756,7 +2775,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2788,7 +2807,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2820,7 +2839,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2852,7 +2871,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2884,7 +2903,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2916,7 +2935,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2948,7 +2967,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2980,7 +2999,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3012,7 +3031,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3044,7 +3063,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3076,7 +3095,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3108,7 +3127,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3140,7 +3159,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3172,7 +3191,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3204,7 +3223,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3236,7 +3255,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3268,7 +3287,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3300,7 +3319,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3332,7 +3351,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3364,7 +3383,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3396,7 +3415,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3428,7 +3447,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3460,7 +3479,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3492,7 +3511,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3524,7 +3543,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3556,7 +3575,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3588,7 +3607,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3620,7 +3639,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3652,7 +3671,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3684,7 +3703,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3716,7 +3735,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3748,7 +3767,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3780,7 +3799,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3812,7 +3831,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3844,7 +3863,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3876,7 +3895,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3908,7 +3927,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3940,7 +3959,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3972,7 +3991,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4004,7 +4023,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4036,7 +4055,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4068,7 +4087,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4100,7 +4119,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4132,7 +4151,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4164,7 +4183,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4196,7 +4215,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4228,7 +4247,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4260,7 +4279,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4292,7 +4311,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4324,7 +4343,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4356,7 +4375,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4388,7 +4407,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4420,7 +4439,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4452,7 +4471,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4484,7 +4503,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4516,7 +4535,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4548,7 +4567,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4580,7 +4599,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4612,7 +4631,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4644,7 +4663,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4676,7 +4695,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4708,7 +4727,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4740,7 +4759,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4772,7 +4791,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4804,7 +4823,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4836,7 +4855,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4868,7 +4887,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4900,7 +4919,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4932,7 +4951,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4964,7 +4983,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4996,7 +5015,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5028,7 +5047,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5060,7 +5079,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5092,7 +5111,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5124,7 +5143,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5156,7 +5175,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5188,7 +5207,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5220,7 +5239,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5252,7 +5271,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5284,7 +5303,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5316,7 +5335,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5348,7 +5367,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5380,7 +5399,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5412,7 +5431,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5444,7 +5463,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5476,7 +5495,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5508,7 +5527,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5540,7 +5559,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5572,7 +5591,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5604,7 +5623,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5636,7 +5655,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5668,7 +5687,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5700,7 +5719,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5732,7 +5751,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5764,7 +5783,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5796,7 +5815,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5828,7 +5847,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5860,7 +5879,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5892,7 +5911,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5924,7 +5943,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5956,7 +5975,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5988,7 +6007,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6020,7 +6039,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6052,7 +6071,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6084,7 +6103,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6116,7 +6135,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6148,7 +6167,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6180,7 +6199,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6212,7 +6231,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6244,7 +6263,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6276,7 +6295,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6308,7 +6327,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6340,7 +6359,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6372,7 +6391,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6404,7 +6423,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6436,7 +6455,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6468,7 +6487,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6500,7 +6519,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6532,7 +6551,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6564,7 +6583,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6596,7 +6615,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6628,7 +6647,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6660,7 +6679,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6692,7 +6711,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6724,7 +6743,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6756,7 +6775,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6788,7 +6807,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6820,7 +6839,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6852,7 +6871,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6884,7 +6903,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6916,7 +6935,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6948,7 +6967,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6980,7 +6999,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7012,7 +7031,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7044,7 +7063,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7076,7 +7095,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7108,7 +7127,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7140,7 +7159,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7172,7 +7191,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7204,7 +7223,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7236,7 +7255,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7268,7 +7287,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7300,7 +7319,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7332,7 +7351,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7364,7 +7383,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7396,7 +7415,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7428,7 +7447,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7460,7 +7479,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7492,7 +7511,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7524,7 +7543,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7556,7 +7575,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7588,7 +7607,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7620,7 +7639,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7652,7 +7671,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7684,7 +7703,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7716,7 +7735,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7748,7 +7767,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7780,7 +7799,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7812,7 +7831,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7844,7 +7863,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7876,7 +7895,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7908,7 +7927,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7940,7 +7959,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7972,7 +7991,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8004,7 +8023,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8036,7 +8055,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8068,7 +8087,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8100,7 +8119,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8132,7 +8151,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8164,7 +8183,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8196,7 +8215,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8228,7 +8247,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8260,7 +8279,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8292,7 +8311,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8324,7 +8343,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8356,7 +8375,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8388,7 +8407,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8420,7 +8439,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8452,7 +8471,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8484,7 +8503,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8516,7 +8535,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8548,7 +8567,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8580,7 +8599,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8612,7 +8631,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8644,7 +8663,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8676,7 +8695,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8708,7 +8727,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8740,7 +8759,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8772,7 +8791,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8804,7 +8823,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8836,7 +8855,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8868,7 +8887,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8900,7 +8919,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8932,7 +8951,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8964,7 +8983,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8996,7 +9015,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9028,7 +9047,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9060,7 +9079,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9092,7 +9111,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9124,7 +9143,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9156,7 +9175,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9188,7 +9207,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9220,7 +9239,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9252,7 +9271,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9284,7 +9303,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9316,7 +9335,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9348,7 +9367,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9380,7 +9399,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9412,7 +9431,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9444,7 +9463,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9476,7 +9495,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9508,7 +9527,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9540,7 +9559,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9572,7 +9591,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9604,7 +9623,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9636,7 +9655,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9668,7 +9687,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9700,7 +9719,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9732,7 +9751,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9764,7 +9783,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9796,7 +9815,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9828,7 +9847,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9860,7 +9879,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9892,7 +9911,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9924,7 +9943,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9956,7 +9975,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9988,7 +10007,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10020,7 +10039,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10052,7 +10071,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10084,7 +10103,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10116,7 +10135,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10148,7 +10167,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -10180,7 +10199,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10212,7 +10231,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10244,7 +10263,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10276,7 +10295,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10308,7 +10327,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10340,7 +10359,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10372,7 +10391,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10404,7 +10423,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10436,7 +10455,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10468,7 +10487,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -10500,7 +10519,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10532,7 +10551,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -10564,7 +10583,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -10596,7 +10615,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -10628,7 +10647,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10660,7 +10679,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10692,7 +10711,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10724,7 +10743,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10756,7 +10775,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10788,7 +10807,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10820,7 +10839,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10852,7 +10871,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10884,7 +10903,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10916,7 +10935,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10948,7 +10967,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10980,7 +10999,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11012,7 +11031,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11044,7 +11063,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11076,7 +11095,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11108,7 +11127,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -11140,7 +11159,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -11172,7 +11191,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -11204,7 +11223,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -11236,7 +11255,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -11268,7 +11287,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -11300,7 +11319,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -11332,7 +11351,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -11364,7 +11383,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -11396,7 +11415,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -11428,7 +11447,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -11460,7 +11479,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -11492,7 +11511,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -11524,7 +11543,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -11556,7 +11575,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11588,7 +11607,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11620,7 +11639,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11652,7 +11671,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11684,7 +11703,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11716,7 +11735,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11748,7 +11767,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11780,7 +11799,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11812,7 +11831,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11844,7 +11863,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11876,7 +11895,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -11908,7 +11927,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11940,7 +11959,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -11972,7 +11991,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -12004,7 +12023,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -12036,7 +12055,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -12068,7 +12087,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -12100,7 +12119,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -12132,7 +12151,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -12164,7 +12183,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -12196,7 +12215,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -12228,7 +12247,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -12260,7 +12279,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -12292,7 +12311,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -12324,7 +12343,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -12356,7 +12375,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -12388,7 +12407,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -12420,7 +12439,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12452,7 +12471,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -12484,7 +12503,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -12516,7 +12535,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -12548,7 +12567,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12580,7 +12599,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -12612,7 +12631,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -12644,7 +12663,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -12676,7 +12695,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -12708,7 +12727,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12740,7 +12759,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12772,7 +12791,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -12804,7 +12823,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -12836,7 +12855,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -12868,7 +12887,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -12900,7 +12919,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -12932,7 +12951,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -12964,7 +12983,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -12996,7 +13015,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -13028,7 +13047,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -13060,7 +13079,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -13092,7 +13111,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -13124,7 +13143,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -13156,7 +13175,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -13188,7 +13207,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -13220,7 +13239,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -13252,7 +13271,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
@@ -13284,7 +13303,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
@@ -13316,7 +13335,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
@@ -13348,7 +13367,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
@@ -13380,7 +13399,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
@@ -13412,7 +13431,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13444,7 +13463,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13476,7 +13495,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
@@ -13508,7 +13527,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
@@ -13540,7 +13559,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
@@ -13572,7 +13591,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13604,7 +13623,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13636,7 +13655,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13668,7 +13687,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
@@ -13700,7 +13719,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
@@ -13732,7 +13751,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
@@ -13764,7 +13783,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
@@ -13796,7 +13815,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
@@ -13828,7 +13847,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
@@ -13860,7 +13879,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
@@ -13892,7 +13911,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
@@ -13924,7 +13943,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>357</v>
       </c>
@@ -13956,7 +13975,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>358</v>
       </c>
@@ -13988,7 +14007,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>359</v>
       </c>
@@ -14020,7 +14039,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>360</v>
       </c>
@@ -14052,7 +14071,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>361</v>
       </c>
@@ -14084,7 +14103,7 @@
         <v>4.1655092592592598E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>362</v>
       </c>
@@ -14116,7 +14135,7 @@
         <v>8.3321759259259262E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>363</v>
       </c>
@@ -14148,7 +14167,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>364</v>
       </c>
@@ -14180,7 +14199,7 @@
         <v>0.16665509259259259</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>365</v>
       </c>
@@ -14212,7 +14231,7 @@
         <v>0.20832175925925925</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>366</v>
       </c>
@@ -14244,7 +14263,7 @@
         <v>0.24998842592592593</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>367</v>
       </c>
@@ -14276,7 +14295,7 @@
         <v>0.29165509259259259</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>368</v>
       </c>
@@ -14308,7 +14327,7 @@
         <v>0.33332175925925928</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>369</v>
       </c>
@@ -14340,7 +14359,7 @@
         <v>0.37498842592592596</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>370</v>
       </c>
@@ -14372,7 +14391,7 @@
         <v>0.41665509259259265</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>371</v>
       </c>
@@ -14404,7 +14423,7 @@
         <v>0.45832175925925928</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>372</v>
       </c>
@@ -14436,7 +14455,7 @@
         <v>0.49998842592592596</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>373</v>
       </c>
@@ -14468,7 +14487,7 @@
         <v>0.54165509259259259</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>374</v>
       </c>
@@ -14500,7 +14519,7 @@
         <v>0.58332175925925933</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>375</v>
       </c>
@@ -14532,7 +14551,7 @@
         <v>0.62498842592592596</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>376</v>
       </c>
@@ -14564,7 +14583,7 @@
         <v>0.66665509259259259</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>377</v>
       </c>
@@ -14596,7 +14615,7 @@
         <v>0.70832175925925922</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>378</v>
       </c>
@@ -14628,7 +14647,7 @@
         <v>0.74998842592592585</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>379</v>
       </c>
@@ -14660,7 +14679,7 @@
         <v>0.79165509259259259</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>380</v>
       </c>
@@ -14692,7 +14711,7 @@
         <v>0.83332175925925922</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>381</v>
       </c>
@@ -14724,7 +14743,7 @@
         <v>0.87498842592592585</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>382</v>
       </c>
@@ -14756,7 +14775,7 @@
         <v>0.91665509259259259</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>383</v>
       </c>
@@ -14788,7 +14807,7 @@
         <v>0.95832175925925922</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>384</v>
       </c>
@@ -14820,7 +14839,7 @@
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>385</v>
       </c>
@@ -14852,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>386</v>
       </c>
@@ -14884,7 +14903,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>387</v>
       </c>
@@ -14916,7 +14935,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>388</v>
       </c>
@@ -14948,7 +14967,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>389</v>
       </c>
@@ -14980,7 +14999,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>390</v>
       </c>
@@ -15012,7 +15031,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>391</v>
       </c>
@@ -15044,7 +15063,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>392</v>
       </c>
@@ -15076,7 +15095,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>393</v>
       </c>
@@ -15108,7 +15127,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>394</v>
       </c>
@@ -15140,7 +15159,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>395</v>
       </c>
@@ -15172,7 +15191,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>396</v>
       </c>
@@ -15204,7 +15223,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>397</v>
       </c>
@@ -15236,7 +15255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>398</v>
       </c>
@@ -15268,7 +15287,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>399</v>
       </c>
@@ -15300,7 +15319,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>400</v>
       </c>
@@ -15332,7 +15351,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>401</v>
       </c>
@@ -15364,7 +15383,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>402</v>
       </c>
@@ -15396,7 +15415,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>403</v>
       </c>
@@ -15428,7 +15447,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>404</v>
       </c>
@@ -15460,7 +15479,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>405</v>
       </c>
@@ -15492,7 +15511,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>406</v>
       </c>
@@ -15524,7 +15543,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>407</v>
       </c>
@@ -15556,7 +15575,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>408</v>
       </c>
@@ -15588,7 +15607,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>409</v>
       </c>
@@ -15620,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>410</v>
       </c>
@@ -15652,7 +15671,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>411</v>
       </c>
@@ -15684,7 +15703,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>412</v>
       </c>
@@ -15716,7 +15735,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>413</v>
       </c>
@@ -15748,7 +15767,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>414</v>
       </c>
@@ -15780,7 +15799,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>415</v>
       </c>
@@ -15812,7 +15831,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>416</v>
       </c>
@@ -15844,7 +15863,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>417</v>
       </c>
@@ -15876,7 +15895,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>418</v>
       </c>
@@ -15908,7 +15927,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>419</v>
       </c>
@@ -15940,7 +15959,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>420</v>
       </c>
@@ -15972,7 +15991,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>421</v>
       </c>
@@ -16004,7 +16023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>422</v>
       </c>
@@ -16036,7 +16055,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>423</v>
       </c>
@@ -16068,7 +16087,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>424</v>
       </c>
@@ -16100,7 +16119,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>425</v>
       </c>
@@ -16132,7 +16151,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>426</v>
       </c>
@@ -16164,7 +16183,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>427</v>
       </c>
@@ -16196,7 +16215,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>428</v>
       </c>
@@ -16228,7 +16247,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>429</v>
       </c>
@@ -16260,7 +16279,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>430</v>
       </c>
@@ -16292,7 +16311,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>431</v>
       </c>
@@ -16324,7 +16343,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>432</v>
       </c>
@@ -16356,7 +16375,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>433</v>
       </c>
@@ -16388,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>434</v>
       </c>
@@ -16420,7 +16439,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>435</v>
       </c>
@@ -16452,7 +16471,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>436</v>
       </c>
@@ -16484,7 +16503,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>437</v>
       </c>
@@ -16516,7 +16535,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>438</v>
       </c>
@@ -16548,7 +16567,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>439</v>
       </c>
@@ -16580,7 +16599,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>440</v>
       </c>
@@ -16612,7 +16631,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>441</v>
       </c>
@@ -16644,7 +16663,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>442</v>
       </c>
@@ -16676,7 +16695,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>443</v>
       </c>
@@ -16708,7 +16727,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>444</v>
       </c>
@@ -16740,7 +16759,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>445</v>
       </c>
@@ -16772,7 +16791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>446</v>
       </c>
@@ -16804,7 +16823,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>447</v>
       </c>
@@ -16836,7 +16855,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>448</v>
       </c>
@@ -16868,7 +16887,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>449</v>
       </c>
@@ -16900,7 +16919,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>450</v>
       </c>
@@ -16932,7 +16951,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>451</v>
       </c>
@@ -16964,7 +16983,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>452</v>
       </c>
@@ -16996,7 +17015,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>453</v>
       </c>
@@ -17028,7 +17047,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>454</v>
       </c>
@@ -17060,7 +17079,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>455</v>
       </c>
@@ -17092,7 +17111,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>456</v>
       </c>
@@ -17124,7 +17143,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>457</v>
       </c>
@@ -17156,7 +17175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>458</v>
       </c>
@@ -17188,7 +17207,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>459</v>
       </c>
@@ -17220,7 +17239,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>460</v>
       </c>
@@ -17252,7 +17271,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>461</v>
       </c>
@@ -17284,7 +17303,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>462</v>
       </c>
@@ -17316,7 +17335,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>463</v>
       </c>
@@ -17348,7 +17367,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>464</v>
       </c>
@@ -17380,7 +17399,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>465</v>
       </c>
@@ -17412,7 +17431,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>466</v>
       </c>
@@ -17444,7 +17463,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>467</v>
       </c>
@@ -17476,7 +17495,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>468</v>
       </c>
@@ -17508,7 +17527,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>469</v>
       </c>
@@ -17540,7 +17559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>470</v>
       </c>
@@ -17572,7 +17591,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>471</v>
       </c>
@@ -17604,7 +17623,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>472</v>
       </c>
@@ -17636,7 +17655,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>473</v>
       </c>
@@ -17668,7 +17687,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>474</v>
       </c>
@@ -17700,7 +17719,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>475</v>
       </c>
@@ -17732,7 +17751,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>476</v>
       </c>
@@ -17764,7 +17783,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>477</v>
       </c>
@@ -17796,7 +17815,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>478</v>
       </c>
@@ -17828,7 +17847,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>479</v>
       </c>
@@ -17860,7 +17879,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>480</v>
       </c>
@@ -17892,7 +17911,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>481</v>
       </c>
@@ -17924,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>482</v>
       </c>
@@ -17956,7 +17975,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>483</v>
       </c>
@@ -17988,7 +18007,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>484</v>
       </c>
@@ -18020,7 +18039,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>485</v>
       </c>
@@ -18052,7 +18071,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>486</v>
       </c>
@@ -18084,7 +18103,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>487</v>
       </c>
@@ -18116,7 +18135,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>488</v>
       </c>
@@ -18148,7 +18167,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>489</v>
       </c>
@@ -18180,7 +18199,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>490</v>
       </c>
@@ -18212,7 +18231,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>491</v>
       </c>
@@ -18244,7 +18263,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>492</v>
       </c>
@@ -18276,7 +18295,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>493</v>
       </c>
@@ -18308,7 +18327,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>494</v>
       </c>
@@ -18340,7 +18359,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>495</v>
       </c>
@@ -18372,7 +18391,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>496</v>
       </c>
@@ -18404,7 +18423,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>497</v>
       </c>
@@ -18436,7 +18455,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>498</v>
       </c>
@@ -18468,7 +18487,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>499</v>
       </c>
@@ -18500,7 +18519,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>500</v>
       </c>
@@ -18532,7 +18551,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>501</v>
       </c>
@@ -18564,7 +18583,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>502</v>
       </c>
@@ -18596,7 +18615,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>503</v>
       </c>
@@ -18628,7 +18647,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>504</v>
       </c>
@@ -18660,7 +18679,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>505</v>
       </c>
@@ -18692,7 +18711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>506</v>
       </c>
@@ -18724,7 +18743,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>507</v>
       </c>
@@ -18756,7 +18775,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>508</v>
       </c>
@@ -18788,7 +18807,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>509</v>
       </c>
@@ -18820,7 +18839,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>510</v>
       </c>
@@ -18852,7 +18871,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>511</v>
       </c>
@@ -18884,7 +18903,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>512</v>
       </c>
@@ -18916,7 +18935,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>513</v>
       </c>
@@ -18948,7 +18967,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>514</v>
       </c>
@@ -18980,7 +18999,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>515</v>
       </c>
@@ -19012,7 +19031,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>516</v>
       </c>
@@ -19044,7 +19063,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>517</v>
       </c>
@@ -19076,7 +19095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>518</v>
       </c>
@@ -19108,7 +19127,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>519</v>
       </c>
@@ -19140,7 +19159,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>520</v>
       </c>
@@ -19172,7 +19191,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>521</v>
       </c>
@@ -19204,7 +19223,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>522</v>
       </c>
@@ -19236,7 +19255,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>523</v>
       </c>
@@ -19268,7 +19287,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>524</v>
       </c>
@@ -19300,7 +19319,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>525</v>
       </c>
@@ -19332,7 +19351,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>526</v>
       </c>
@@ -19364,7 +19383,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>527</v>
       </c>
@@ -19396,7 +19415,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>528</v>
       </c>
@@ -19428,7 +19447,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>529</v>
       </c>
@@ -19460,7 +19479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>530</v>
       </c>
@@ -19492,7 +19511,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>531</v>
       </c>
@@ -19524,7 +19543,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>532</v>
       </c>
@@ -19556,7 +19575,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>533</v>
       </c>
@@ -19588,7 +19607,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>534</v>
       </c>
@@ -19620,7 +19639,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>535</v>
       </c>
@@ -19652,7 +19671,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>536</v>
       </c>
@@ -19684,7 +19703,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>537</v>
       </c>
@@ -19716,7 +19735,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>538</v>
       </c>
@@ -19748,7 +19767,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>539</v>
       </c>
@@ -19780,7 +19799,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>540</v>
       </c>
@@ -19812,7 +19831,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>541</v>
       </c>
@@ -19844,7 +19863,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>542</v>
       </c>
@@ -19876,7 +19895,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>543</v>
       </c>
@@ -19908,7 +19927,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>544</v>
       </c>
@@ -19940,7 +19959,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>545</v>
       </c>
@@ -19972,7 +19991,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>546</v>
       </c>
@@ -20004,7 +20023,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>547</v>
       </c>
@@ -20036,7 +20055,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>548</v>
       </c>
@@ -20068,7 +20087,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>549</v>
       </c>
@@ -20100,7 +20119,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>550</v>
       </c>
@@ -20132,7 +20151,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>551</v>
       </c>
@@ -20164,7 +20183,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>552</v>
       </c>
@@ -20196,7 +20215,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>553</v>
       </c>
@@ -20228,7 +20247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>554</v>
       </c>
@@ -20260,7 +20279,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>555</v>
       </c>
@@ -20292,7 +20311,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>556</v>
       </c>
@@ -20324,7 +20343,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>557</v>
       </c>
@@ -20356,7 +20375,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>558</v>
       </c>
@@ -20388,7 +20407,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>559</v>
       </c>
@@ -20420,7 +20439,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>560</v>
       </c>
@@ -20452,7 +20471,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>561</v>
       </c>
@@ -20484,7 +20503,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>562</v>
       </c>
@@ -20516,7 +20535,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>563</v>
       </c>
@@ -20548,7 +20567,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>564</v>
       </c>
@@ -20580,7 +20599,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>565</v>
       </c>
@@ -20612,7 +20631,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>566</v>
       </c>
@@ -20644,7 +20663,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>567</v>
       </c>
@@ -20676,7 +20695,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>568</v>
       </c>
@@ -20708,7 +20727,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>569</v>
       </c>
@@ -20740,7 +20759,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>570</v>
       </c>
@@ -20772,7 +20791,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>571</v>
       </c>
@@ -20804,7 +20823,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>572</v>
       </c>
@@ -20836,7 +20855,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>573</v>
       </c>
@@ -20868,7 +20887,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>574</v>
       </c>
@@ -20900,7 +20919,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>575</v>
       </c>
@@ -20932,7 +20951,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>576</v>
       </c>
@@ -20964,7 +20983,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>577</v>
       </c>
@@ -20996,7 +21015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>578</v>
       </c>
@@ -21028,7 +21047,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>579</v>
       </c>
@@ -21060,7 +21079,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>580</v>
       </c>
@@ -21092,7 +21111,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>581</v>
       </c>
@@ -21124,7 +21143,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>582</v>
       </c>
@@ -21156,7 +21175,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>583</v>
       </c>
@@ -21188,7 +21207,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>584</v>
       </c>
@@ -21220,7 +21239,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>585</v>
       </c>
@@ -21252,7 +21271,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>586</v>
       </c>
@@ -21284,7 +21303,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>587</v>
       </c>
@@ -21316,7 +21335,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>588</v>
       </c>
@@ -21348,7 +21367,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>589</v>
       </c>
@@ -21380,7 +21399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>590</v>
       </c>
@@ -21412,7 +21431,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>591</v>
       </c>
@@ -21444,7 +21463,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>592</v>
       </c>
@@ -21476,7 +21495,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>593</v>
       </c>
@@ -21508,7 +21527,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>594</v>
       </c>
@@ -21540,7 +21559,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>595</v>
       </c>
@@ -21572,7 +21591,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>596</v>
       </c>
@@ -21604,7 +21623,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>597</v>
       </c>
@@ -21636,7 +21655,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>598</v>
       </c>
@@ -21668,7 +21687,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>599</v>
       </c>
@@ -21700,7 +21719,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>600</v>
       </c>
@@ -21732,7 +21751,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>601</v>
       </c>
@@ -21764,7 +21783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>602</v>
       </c>
@@ -21796,7 +21815,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>603</v>
       </c>
@@ -21828,7 +21847,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>604</v>
       </c>
@@ -21860,7 +21879,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>605</v>
       </c>
@@ -21892,7 +21911,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>606</v>
       </c>
@@ -21924,7 +21943,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>607</v>
       </c>
@@ -21956,7 +21975,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>608</v>
       </c>
@@ -21988,7 +22007,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>609</v>
       </c>
@@ -22020,7 +22039,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>610</v>
       </c>
@@ -22052,7 +22071,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>611</v>
       </c>
@@ -22084,7 +22103,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>612</v>
       </c>
@@ -22116,7 +22135,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>613</v>
       </c>
@@ -22148,7 +22167,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>614</v>
       </c>
@@ -22180,7 +22199,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>615</v>
       </c>
@@ -22212,7 +22231,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>616</v>
       </c>
@@ -22244,7 +22263,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>617</v>
       </c>
@@ -22276,7 +22295,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>618</v>
       </c>
@@ -22308,7 +22327,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>619</v>
       </c>
@@ -22340,7 +22359,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>620</v>
       </c>
@@ -22372,7 +22391,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>621</v>
       </c>
@@ -22404,7 +22423,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>622</v>
       </c>
@@ -22436,7 +22455,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>623</v>
       </c>
@@ -22468,7 +22487,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>624</v>
       </c>
@@ -22500,7 +22519,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>625</v>
       </c>
@@ -22532,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>626</v>
       </c>
@@ -22564,7 +22583,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>627</v>
       </c>
@@ -22596,7 +22615,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>628</v>
       </c>
@@ -22628,7 +22647,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>629</v>
       </c>
@@ -22660,7 +22679,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>630</v>
       </c>
@@ -22692,7 +22711,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>631</v>
       </c>
@@ -22724,7 +22743,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>632</v>
       </c>
@@ -22756,7 +22775,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>633</v>
       </c>
@@ -22788,7 +22807,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>634</v>
       </c>
@@ -22820,7 +22839,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>635</v>
       </c>
@@ -22852,7 +22871,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>636</v>
       </c>
@@ -22884,7 +22903,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>637</v>
       </c>
@@ -22916,7 +22935,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>638</v>
       </c>
@@ -22948,7 +22967,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>639</v>
       </c>
@@ -22980,7 +22999,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>640</v>
       </c>
@@ -23012,7 +23031,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>641</v>
       </c>
@@ -23044,7 +23063,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>642</v>
       </c>
@@ -23076,7 +23095,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>643</v>
       </c>
@@ -23108,7 +23127,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>644</v>
       </c>
@@ -23140,7 +23159,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>645</v>
       </c>
@@ -23172,7 +23191,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>646</v>
       </c>
@@ -23204,7 +23223,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>647</v>
       </c>
@@ -23236,7 +23255,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>648</v>
       </c>
@@ -23268,7 +23287,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>649</v>
       </c>
@@ -23300,7 +23319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>650</v>
       </c>
@@ -23332,7 +23351,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>651</v>
       </c>
@@ -23364,7 +23383,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>652</v>
       </c>
@@ -23396,7 +23415,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>653</v>
       </c>
@@ -23428,7 +23447,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>654</v>
       </c>
@@ -23460,7 +23479,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>655</v>
       </c>
@@ -23492,7 +23511,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>656</v>
       </c>
@@ -23524,7 +23543,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>657</v>
       </c>
@@ -23556,7 +23575,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>658</v>
       </c>
@@ -23588,7 +23607,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>659</v>
       </c>
@@ -23620,7 +23639,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>660</v>
       </c>
@@ -23652,7 +23671,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>661</v>
       </c>
@@ -23684,7 +23703,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>662</v>
       </c>
@@ -23716,7 +23735,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>663</v>
       </c>
@@ -23748,7 +23767,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>664</v>
       </c>
@@ -23780,7 +23799,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>665</v>
       </c>
@@ -23812,7 +23831,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>666</v>
       </c>
@@ -23844,7 +23863,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>667</v>
       </c>
@@ -23876,7 +23895,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>668</v>
       </c>
@@ -23908,7 +23927,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>669</v>
       </c>
@@ -23940,7 +23959,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>670</v>
       </c>
@@ -23972,7 +23991,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>671</v>
       </c>
@@ -24004,7 +24023,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>672</v>
       </c>
@@ -24036,7 +24055,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>673</v>
       </c>
@@ -24068,7 +24087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>674</v>
       </c>
@@ -24100,7 +24119,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>675</v>
       </c>
@@ -24132,7 +24151,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>676</v>
       </c>
@@ -24164,7 +24183,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>677</v>
       </c>
@@ -24196,7 +24215,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>678</v>
       </c>
@@ -24228,7 +24247,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>679</v>
       </c>
@@ -24260,7 +24279,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>680</v>
       </c>
@@ -24292,7 +24311,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>681</v>
       </c>
@@ -24324,7 +24343,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>682</v>
       </c>
@@ -24356,7 +24375,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>683</v>
       </c>
@@ -24388,7 +24407,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>684</v>
       </c>
@@ -24420,7 +24439,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>685</v>
       </c>
@@ -24452,7 +24471,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>686</v>
       </c>
@@ -24484,7 +24503,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>687</v>
       </c>
@@ -24516,7 +24535,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>688</v>
       </c>
@@ -24548,7 +24567,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>689</v>
       </c>
@@ -24580,7 +24599,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>690</v>
       </c>
@@ -24612,7 +24631,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>691</v>
       </c>
@@ -24644,7 +24663,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>692</v>
       </c>
@@ -24676,7 +24695,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>693</v>
       </c>
@@ -24708,7 +24727,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>694</v>
       </c>
@@ -24740,7 +24759,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>695</v>
       </c>
@@ -24772,7 +24791,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>696</v>
       </c>
@@ -24804,7 +24823,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>697</v>
       </c>
@@ -24836,7 +24855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>698</v>
       </c>
@@ -24868,7 +24887,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>699</v>
       </c>
@@ -24900,7 +24919,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>700</v>
       </c>
@@ -24932,7 +24951,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>701</v>
       </c>
@@ -24964,7 +24983,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>702</v>
       </c>
@@ -24996,7 +25015,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>703</v>
       </c>
@@ -25028,7 +25047,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>704</v>
       </c>
@@ -25060,7 +25079,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>705</v>
       </c>
@@ -25092,7 +25111,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>706</v>
       </c>
@@ -25124,7 +25143,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>707</v>
       </c>
@@ -25156,7 +25175,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>708</v>
       </c>
@@ -25188,7 +25207,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>709</v>
       </c>
@@ -25220,7 +25239,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>710</v>
       </c>
@@ -25252,7 +25271,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>711</v>
       </c>
@@ -25284,7 +25303,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>712</v>
       </c>
@@ -25316,7 +25335,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>713</v>
       </c>
@@ -25348,7 +25367,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>714</v>
       </c>
@@ -25380,7 +25399,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>715</v>
       </c>
@@ -25412,7 +25431,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>716</v>
       </c>
@@ -25444,7 +25463,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>717</v>
       </c>
@@ -25476,7 +25495,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>718</v>
       </c>
@@ -25508,7 +25527,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>719</v>
       </c>
@@ -25540,7 +25559,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>720</v>
       </c>
@@ -25572,7 +25591,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>721</v>
       </c>
@@ -25604,7 +25623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>722</v>
       </c>
@@ -25636,7 +25655,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>723</v>
       </c>
@@ -25668,7 +25687,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>724</v>
       </c>
@@ -25700,7 +25719,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>725</v>
       </c>
@@ -25732,7 +25751,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>726</v>
       </c>
@@ -25764,7 +25783,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>727</v>
       </c>
@@ -25796,7 +25815,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>728</v>
       </c>
@@ -25828,7 +25847,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>729</v>
       </c>
@@ -25860,7 +25879,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>730</v>
       </c>
@@ -25892,7 +25911,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>731</v>
       </c>
@@ -25924,7 +25943,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>732</v>
       </c>
@@ -25956,7 +25975,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>733</v>
       </c>
@@ -25988,7 +26007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>734</v>
       </c>
@@ -26020,7 +26039,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>735</v>
       </c>
@@ -26052,7 +26071,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>736</v>
       </c>
@@ -26084,7 +26103,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>737</v>
       </c>
@@ -26116,7 +26135,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>738</v>
       </c>
@@ -26148,7 +26167,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>739</v>
       </c>
@@ -26180,7 +26199,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>740</v>
       </c>
@@ -26212,7 +26231,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>741</v>
       </c>
@@ -26244,7 +26263,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>742</v>
       </c>
@@ -26276,7 +26295,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>743</v>
       </c>
@@ -26308,7 +26327,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>744</v>
       </c>
@@ -26340,7 +26359,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>745</v>
       </c>
@@ -26372,7 +26391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>746</v>
       </c>
@@ -26404,7 +26423,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>747</v>
       </c>
@@ -26436,7 +26455,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>748</v>
       </c>
@@ -26468,7 +26487,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>749</v>
       </c>
@@ -26500,7 +26519,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>750</v>
       </c>
@@ -26532,7 +26551,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>751</v>
       </c>
@@ -26564,7 +26583,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>752</v>
       </c>
@@ -26596,7 +26615,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>753</v>
       </c>
@@ -26628,7 +26647,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>754</v>
       </c>
@@ -26660,7 +26679,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>755</v>
       </c>
@@ -26692,7 +26711,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>756</v>
       </c>
@@ -26724,7 +26743,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>757</v>
       </c>
@@ -26756,7 +26775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>758</v>
       </c>
@@ -26788,7 +26807,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>759</v>
       </c>
@@ -26820,7 +26839,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>760</v>
       </c>
@@ -26852,7 +26871,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>761</v>
       </c>
@@ -26884,7 +26903,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>762</v>
       </c>
@@ -26916,7 +26935,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>763</v>
       </c>
@@ -26948,7 +26967,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>764</v>
       </c>
@@ -26980,7 +26999,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>765</v>
       </c>
@@ -27012,7 +27031,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>766</v>
       </c>
@@ -27044,7 +27063,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>767</v>
       </c>
@@ -27076,7 +27095,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>768</v>
       </c>
@@ -27108,7 +27127,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>769</v>
       </c>
@@ -27140,7 +27159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>770</v>
       </c>
@@ -27172,7 +27191,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>771</v>
       </c>
@@ -27204,7 +27223,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>772</v>
       </c>
@@ -27236,7 +27255,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>773</v>
       </c>
@@ -27268,7 +27287,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>774</v>
       </c>
@@ -27300,7 +27319,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>775</v>
       </c>
@@ -27332,7 +27351,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>776</v>
       </c>
@@ -27364,7 +27383,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>777</v>
       </c>
@@ -27396,7 +27415,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>778</v>
       </c>
@@ -27428,7 +27447,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>779</v>
       </c>
@@ -27460,7 +27479,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>780</v>
       </c>
@@ -27492,7 +27511,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>781</v>
       </c>
@@ -27524,7 +27543,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>782</v>
       </c>
@@ -27556,7 +27575,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>783</v>
       </c>
@@ -27588,7 +27607,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>784</v>
       </c>
@@ -27620,7 +27639,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>785</v>
       </c>
@@ -27652,7 +27671,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>786</v>
       </c>
@@ -27684,7 +27703,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>787</v>
       </c>
@@ -27716,7 +27735,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>788</v>
       </c>
@@ -27748,7 +27767,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>789</v>
       </c>
@@ -27780,7 +27799,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791">
         <v>790</v>
       </c>
@@ -27812,7 +27831,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792">
         <v>791</v>
       </c>
@@ -27844,7 +27863,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793">
         <v>792</v>
       </c>
@@ -27876,7 +27895,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794">
         <v>793</v>
       </c>
@@ -27908,7 +27927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795">
         <v>794</v>
       </c>
@@ -27940,7 +27959,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>795</v>
       </c>
@@ -27972,7 +27991,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797">
         <v>796</v>
       </c>
@@ -28004,7 +28023,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798">
         <v>797</v>
       </c>
@@ -28036,7 +28055,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799">
         <v>798</v>
       </c>
@@ -28068,7 +28087,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800">
         <v>799</v>
       </c>
@@ -28100,7 +28119,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801">
         <v>800</v>
       </c>
@@ -28132,7 +28151,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802">
         <v>801</v>
       </c>
@@ -28164,7 +28183,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803">
         <v>802</v>
       </c>
@@ -28196,7 +28215,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A804">
         <v>803</v>
       </c>
@@ -28228,7 +28247,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805">
         <v>804</v>
       </c>
@@ -28260,7 +28279,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806">
         <v>805</v>
       </c>
@@ -28292,7 +28311,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807">
         <v>806</v>
       </c>
@@ -28324,7 +28343,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808">
         <v>807</v>
       </c>
@@ -28356,7 +28375,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809">
         <v>808</v>
       </c>
@@ -28388,7 +28407,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810">
         <v>809</v>
       </c>
@@ -28420,7 +28439,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811">
         <v>810</v>
       </c>
@@ -28452,7 +28471,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812">
         <v>811</v>
       </c>
@@ -28484,7 +28503,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813">
         <v>812</v>
       </c>
@@ -28516,7 +28535,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814">
         <v>813</v>
       </c>
@@ -28548,7 +28567,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815">
         <v>814</v>
       </c>
@@ -28580,7 +28599,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816">
         <v>815</v>
       </c>
@@ -28612,7 +28631,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817">
         <v>816</v>
       </c>
@@ -28644,7 +28663,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818">
         <v>817</v>
       </c>
@@ -28676,7 +28695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819">
         <v>818</v>
       </c>
@@ -28708,7 +28727,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820">
         <v>819</v>
       </c>
@@ -28740,7 +28759,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821">
         <v>820</v>
       </c>
@@ -28772,7 +28791,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822">
         <v>821</v>
       </c>
@@ -28804,7 +28823,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823">
         <v>822</v>
       </c>
@@ -28836,7 +28855,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824">
         <v>823</v>
       </c>
@@ -28868,7 +28887,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825">
         <v>824</v>
       </c>
@@ -28900,7 +28919,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826">
         <v>825</v>
       </c>
@@ -28932,7 +28951,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827">
         <v>826</v>
       </c>
@@ -28964,7 +28983,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A828">
         <v>827</v>
       </c>
@@ -28996,7 +29015,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829">
         <v>828</v>
       </c>
@@ -29028,7 +29047,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830">
         <v>829</v>
       </c>
@@ -29060,7 +29079,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831">
         <v>830</v>
       </c>
@@ -29092,7 +29111,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832">
         <v>831</v>
       </c>
@@ -29124,7 +29143,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833">
         <v>832</v>
       </c>
@@ -29156,7 +29175,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834">
         <v>833</v>
       </c>
@@ -29188,7 +29207,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835">
         <v>834</v>
       </c>
@@ -29220,7 +29239,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836">
         <v>835</v>
       </c>
@@ -29252,7 +29271,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837">
         <v>836</v>
       </c>
@@ -29284,7 +29303,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838">
         <v>837</v>
       </c>
@@ -29316,7 +29335,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839">
         <v>838</v>
       </c>
@@ -29348,7 +29367,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840">
         <v>839</v>
       </c>
@@ -29380,7 +29399,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841">
         <v>840</v>
       </c>
@@ -29412,7 +29431,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A842">
         <v>841</v>
       </c>
@@ -29444,7 +29463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843">
         <v>842</v>
       </c>
@@ -29476,7 +29495,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844">
         <v>843</v>
       </c>
@@ -29508,7 +29527,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845">
         <v>844</v>
       </c>
@@ -29540,7 +29559,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A846">
         <v>845</v>
       </c>
@@ -29572,7 +29591,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847">
         <v>846</v>
       </c>
@@ -29604,7 +29623,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A848">
         <v>847</v>
       </c>
@@ -29636,7 +29655,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A849">
         <v>848</v>
       </c>
@@ -29668,7 +29687,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A850">
         <v>849</v>
       </c>
@@ -29700,7 +29719,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A851">
         <v>850</v>
       </c>
@@ -29732,7 +29751,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A852">
         <v>851</v>
       </c>
@@ -29764,7 +29783,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853">
         <v>852</v>
       </c>
@@ -29796,7 +29815,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854">
         <v>853</v>
       </c>
@@ -29828,7 +29847,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A855">
         <v>854</v>
       </c>
@@ -29860,7 +29879,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A856">
         <v>855</v>
       </c>
@@ -29892,7 +29911,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A857">
         <v>856</v>
       </c>
@@ -29924,7 +29943,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A858">
         <v>857</v>
       </c>
@@ -29956,7 +29975,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A859">
         <v>858</v>
       </c>
@@ -29988,7 +30007,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A860">
         <v>859</v>
       </c>
@@ -30020,7 +30039,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A861">
         <v>860</v>
       </c>
@@ -30052,7 +30071,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A862">
         <v>861</v>
       </c>
@@ -30084,7 +30103,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A863">
         <v>862</v>
       </c>
@@ -30116,7 +30135,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A864">
         <v>863</v>
       </c>
@@ -30148,7 +30167,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A865">
         <v>864</v>
       </c>
@@ -30180,7 +30199,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A866">
         <v>865</v>
       </c>
@@ -30212,7 +30231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A867">
         <v>866</v>
       </c>
@@ -30244,7 +30263,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A868">
         <v>867</v>
       </c>
@@ -30276,7 +30295,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A869">
         <v>868</v>
       </c>
@@ -30308,7 +30327,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A870">
         <v>869</v>
       </c>
@@ -30340,7 +30359,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A871">
         <v>870</v>
       </c>
@@ -30372,7 +30391,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="872" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A872">
         <v>871</v>
       </c>
@@ -30404,7 +30423,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A873">
         <v>872</v>
       </c>
@@ -30436,7 +30455,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A874">
         <v>873</v>
       </c>
@@ -30468,7 +30487,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A875">
         <v>874</v>
       </c>
@@ -30500,7 +30519,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A876">
         <v>875</v>
       </c>
@@ -30532,7 +30551,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A877">
         <v>876</v>
       </c>
@@ -30564,7 +30583,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A878">
         <v>877</v>
       </c>
@@ -30596,7 +30615,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A879">
         <v>878</v>
       </c>
@@ -30628,7 +30647,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A880">
         <v>879</v>
       </c>
@@ -30660,7 +30679,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="881" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A881">
         <v>880</v>
       </c>
@@ -30692,7 +30711,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="882" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A882">
         <v>881</v>
       </c>
@@ -30724,7 +30743,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="883" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A883">
         <v>882</v>
       </c>
@@ -30756,7 +30775,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="884" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A884">
         <v>883</v>
       </c>
@@ -30788,7 +30807,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="885" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A885">
         <v>884</v>
       </c>
@@ -30820,7 +30839,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="886" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A886">
         <v>885</v>
       </c>
@@ -30852,7 +30871,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="887" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A887">
         <v>886</v>
       </c>
@@ -30884,7 +30903,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="888" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A888">
         <v>887</v>
       </c>
@@ -30916,7 +30935,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="889" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A889">
         <v>888</v>
       </c>
@@ -30948,7 +30967,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="890" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A890">
         <v>889</v>
       </c>
@@ -30980,7 +30999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A891">
         <v>890</v>
       </c>
@@ -31012,7 +31031,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="892" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A892">
         <v>891</v>
       </c>
@@ -31044,7 +31063,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="893" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A893">
         <v>892</v>
       </c>
@@ -31076,7 +31095,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="894" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A894">
         <v>893</v>
       </c>
@@ -31108,7 +31127,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="895" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A895">
         <v>894</v>
       </c>
@@ -31140,7 +31159,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="896" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A896">
         <v>895</v>
       </c>
@@ -31172,7 +31191,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="897" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A897">
         <v>896</v>
       </c>
@@ -31204,7 +31223,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="898" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A898">
         <v>897</v>
       </c>
@@ -31236,7 +31255,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="899" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A899">
         <v>898</v>
       </c>
@@ -31268,7 +31287,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A900">
         <v>899</v>
       </c>
@@ -31300,7 +31319,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="901" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A901">
         <v>900</v>
       </c>
@@ -31332,7 +31351,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="902" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A902">
         <v>901</v>
       </c>
@@ -31364,7 +31383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="903" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A903">
         <v>902</v>
       </c>
@@ -31396,7 +31415,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="904" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A904">
         <v>903</v>
       </c>
@@ -31428,7 +31447,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="905" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A905">
         <v>904</v>
       </c>
@@ -31460,7 +31479,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="906" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A906">
         <v>905</v>
       </c>
@@ -31492,7 +31511,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="907" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A907">
         <v>906</v>
       </c>
@@ -31524,7 +31543,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="908" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A908">
         <v>907</v>
       </c>
@@ -31556,7 +31575,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="909" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A909">
         <v>908</v>
       </c>
@@ -31588,7 +31607,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="910" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A910">
         <v>909</v>
       </c>
@@ -31620,7 +31639,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="911" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A911">
         <v>910</v>
       </c>
@@ -31652,7 +31671,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="912" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A912">
         <v>911</v>
       </c>
@@ -31684,7 +31703,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="913" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A913">
         <v>912</v>
       </c>
@@ -31716,7 +31735,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="914" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A914">
         <v>913</v>
       </c>
@@ -31748,7 +31767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A915">
         <v>914</v>
       </c>
@@ -31780,7 +31799,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="916" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A916">
         <v>915</v>
       </c>
@@ -31812,7 +31831,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="917" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A917">
         <v>916</v>
       </c>
@@ -31844,7 +31863,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="918" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A918">
         <v>917</v>
       </c>
@@ -31876,7 +31895,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="919" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A919">
         <v>918</v>
       </c>
@@ -31908,7 +31927,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="920" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A920">
         <v>919</v>
       </c>
@@ -31940,7 +31959,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="921" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A921">
         <v>920</v>
       </c>
@@ -31972,7 +31991,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="922" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A922">
         <v>921</v>
       </c>
@@ -32004,7 +32023,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="923" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A923">
         <v>922</v>
       </c>
@@ -32036,7 +32055,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A924">
         <v>923</v>
       </c>
@@ -32068,7 +32087,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="925" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A925">
         <v>924</v>
       </c>
@@ -32100,7 +32119,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="926" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A926">
         <v>925</v>
       </c>
@@ -32132,7 +32151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="927" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A927">
         <v>926</v>
       </c>
@@ -32164,7 +32183,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="928" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A928">
         <v>927</v>
       </c>
@@ -32196,7 +32215,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="929" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A929">
         <v>928</v>
       </c>
@@ -32228,7 +32247,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="930" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A930">
         <v>929</v>
       </c>
@@ -32260,7 +32279,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="931" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A931">
         <v>930</v>
       </c>
@@ -32292,7 +32311,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="932" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A932">
         <v>931</v>
       </c>
@@ -32324,7 +32343,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="933" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A933">
         <v>932</v>
       </c>
@@ -32356,7 +32375,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="934" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A934">
         <v>933</v>
       </c>
@@ -32388,7 +32407,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="935" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A935">
         <v>934</v>
       </c>
@@ -32420,7 +32439,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="936" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A936">
         <v>935</v>
       </c>
@@ -32452,7 +32471,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="937" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A937">
         <v>936</v>
       </c>
@@ -32502,16 +32521,16 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52:V53"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -32531,7 +32550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43807.415972222225</v>
       </c>
@@ -32545,7 +32564,7 @@
         <v>8.7129999999999992</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43814.415972222225</v>
       </c>
@@ -32559,7 +32578,7 @@
         <v>9.0269999999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43836.415972222225</v>
       </c>
@@ -32573,7 +32592,7 @@
         <v>9.0489999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43843.415972222225</v>
       </c>
@@ -32587,7 +32606,7 @@
         <v>9.0869999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43861.415972222225</v>
       </c>
@@ -32601,7 +32620,7 @@
         <v>9.0289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43877.415972222225</v>
       </c>
@@ -32615,7 +32634,7 @@
         <v>9.0459999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43891.415972222225</v>
       </c>
@@ -32629,7 +32648,7 @@
         <v>9.048</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43898.415972222225</v>
       </c>
@@ -32643,7 +32662,7 @@
         <v>9.0259999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43973.415972222225</v>
       </c>
@@ -32657,7 +32676,7 @@
         <v>9.0950000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43983.415972222225</v>
       </c>
@@ -32671,7 +32690,7 @@
         <v>9.0589999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43990.415972222225</v>
       </c>
@@ -32685,7 +32704,7 @@
         <v>8.9909999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43997.415972222225</v>
       </c>
@@ -32699,7 +32718,7 @@
         <v>8.782</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44025.415972222225</v>
       </c>
@@ -32713,7 +32732,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44032.415972222225</v>
       </c>
@@ -32727,7 +32746,7 @@
         <v>8.3439999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44040.415972222225</v>
       </c>
@@ -32741,7 +32760,7 @@
         <v>8.5820000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44047.415972222225</v>
       </c>
@@ -32755,7 +32774,7 @@
         <v>9.0359999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44061.416666666664</v>
       </c>
@@ -32769,7 +32788,7 @@
         <v>8.3719999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44138.416666666664</v>
       </c>
@@ -32783,7 +32802,7 @@
         <v>8.7520000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44152.416666666664</v>
       </c>
@@ -32797,7 +32816,7 @@
         <v>8.8170000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44167.416666666664</v>
       </c>
@@ -32811,7 +32830,7 @@
         <v>9.0779999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44179.416666666664</v>
       </c>
@@ -32825,7 +32844,7 @@
         <v>9.0340000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>44208.416666666664</v>
       </c>
@@ -32839,7 +32858,7 @@
         <v>9.0179904000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>44223.416666666664</v>
       </c>
@@ -32859,7 +32878,7 @@
         <v>1.08585</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>44251.416666666664</v>
       </c>
@@ -32876,7 +32895,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>44265.416666666664</v>
       </c>
@@ -32896,7 +32915,7 @@
         <v>1.17475</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>44279.416666666664</v>
       </c>
@@ -32916,7 +32935,7 @@
         <v>1.1874499999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>44293.416666666664</v>
       </c>
@@ -32931,7 +32950,7 @@
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>44307.416666666664</v>
       </c>
@@ -32951,7 +32970,7 @@
         <v>1.1112500000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44315.416666666664</v>
       </c>
@@ -32971,7 +32990,7 @@
         <v>1.1938</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44321.416666666664</v>
       </c>
@@ -32991,7 +33010,7 @@
         <v>1.4541500000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44326.416666666664</v>
       </c>
@@ -33011,7 +33030,7 @@
         <v>1.4541500000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44334.416666666664</v>
       </c>
@@ -33031,7 +33050,7 @@
         <v>1.1811</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44348.416666666664</v>
       </c>
@@ -33051,7 +33070,7 @@
         <v>1.0820399999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44356.416666666664</v>
       </c>
@@ -33071,7 +33090,7 @@
         <v>1.6954499999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44362.416666666664</v>
       </c>
@@ -33091,7 +33110,7 @@
         <v>1.46685</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44376.416666666664</v>
       </c>
@@ -33111,7 +33130,7 @@
         <v>1.0985499999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44390.416666666664</v>
       </c>
@@ -33128,7 +33147,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44394.416666666664</v>
       </c>
@@ -33148,18 +33167,19 @@
         <v>1.72495</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>44406.416666666664</v>
+        <v>44404.416666666664</v>
       </c>
       <c r="B40">
-        <v>8.8610000000000007</v>
+        <v>8.8859999999999992</v>
       </c>
       <c r="C40">
-        <v>8.6560000000000006</v>
-      </c>
-      <c r="D40">
-        <v>8.9430455999999996</v>
+        <v>8.6769999999999996</v>
+      </c>
+      <c r="D40" s="43">
+        <f>(C40*0.6801)+3.0561</f>
+        <v>8.9573277000000004</v>
       </c>
       <c r="E40">
         <v>0.05</v>
@@ -33168,7 +33188,7 @@
         <v>1.0509250000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="19">
         <v>44418.416666666664</v>
       </c>
@@ -33188,7 +33208,7 @@
         <v>0.93662500000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="19">
         <v>44433.416666666664</v>
       </c>
@@ -33205,7 +33225,7 @@
         <v>0.83184999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="19">
         <v>44444.416666666664</v>
       </c>
@@ -33222,7 +33242,7 @@
         <v>0.98424999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="19">
         <v>44500.416666666664</v>
       </c>
@@ -33242,7 +33262,7 @@
         <v>1.123696</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>44514.416666666664</v>
       </c>
@@ -33262,7 +33282,7 @@
         <v>0.96519999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="19">
         <v>44528.416666666664</v>
       </c>
@@ -33282,7 +33302,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="22">
         <v>44543.416666666664</v>
       </c>
@@ -33299,8 +33319,8 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -33330,7 +33350,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -33364,7 +33384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G53" s="7" t="s">
         <v>12</v>
       </c>
@@ -33375,7 +33395,7 @@
         <v>9.1889599999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
         <v>49</v>
       </c>
@@ -33409,7 +33429,7 @@
         <v>10.045</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>50</v>
       </c>
@@ -33443,7 +33463,7 @@
         <v>9.6783999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="26"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -33460,7 +33480,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="26" t="s">
         <v>53</v>
       </c>
@@ -33494,7 +33514,7 @@
         <v>1.7272000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="29" t="s">
         <v>54</v>
       </c>
@@ -33519,7 +33539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -33529,7 +33549,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>18</v>
       </c>
@@ -33557,7 +33577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
         <v>19</v>
       </c>
@@ -33582,7 +33602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>52</v>
       </c>
@@ -33592,7 +33612,7 @@
       <c r="E62" s="33"/>
       <c r="F62" s="34"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
         <v>18</v>
       </c>
@@ -33617,7 +33637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="38" t="s">
         <v>19</v>
       </c>
@@ -33697,17 +33717,17 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -33730,97 +33750,97 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="2">
         <v>43807.415972222225</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>43814.415972222225</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>43836.415972222225</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>43843.415972222225</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>43861.415972222225</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>43877.415972222225</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>43891.415972222225</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>43898.415972222225</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>43973.415972222225</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>43983.415972222225</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>43990.415972222225</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>43997.415972222225</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <v>44025.415972222225</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>44032.415972222225</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>44040.415972222225</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>44047.415972222225</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>44061.416666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <v>44138.416666666664</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <v>44152.416666666664</v>
       </c>
@@ -33828,17 +33848,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>44167.416666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>44179.416666666664</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="2">
         <v>44208.416666666664</v>
       </c>
@@ -33846,7 +33866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="2">
         <v>44223.416666666664</v>
       </c>
@@ -33882,7 +33902,7 @@
         <v>1.08585</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="2">
         <v>44251.416666666664</v>
       </c>
@@ -33895,7 +33915,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="2">
         <v>44265.416666666664</v>
       </c>
@@ -33936,7 +33956,7 @@
         <v>1.17475</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="2">
         <v>44279.416666666664</v>
       </c>
@@ -33977,7 +33997,7 @@
         <v>1.1874499999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="2">
         <v>44293.416666666664</v>
       </c>
@@ -34003,7 +34023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="2">
         <v>44307.416666666664</v>
       </c>
@@ -34044,7 +34064,7 @@
         <v>1.1112500000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -34088,7 +34108,7 @@
         <v>1.1938</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
         <v>44321.416666666664</v>
       </c>
@@ -34129,7 +34149,7 @@
         <v>1.4541500000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -34170,7 +34190,7 @@
         <v>1.4541500000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
         <v>44334.416666666664</v>
       </c>
@@ -34211,7 +34231,7 @@
         <v>1.1811</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B34" s="2">
         <v>44348.416666666664</v>
       </c>
@@ -34249,7 +34269,7 @@
         <v>1.0820399999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -34293,7 +34313,7 @@
         <v>1.6954499999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B36" s="2">
         <v>44362.416666666664</v>
       </c>
@@ -34334,7 +34354,7 @@
         <v>1.46685</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B37" s="2">
         <v>44376.416666666664</v>
       </c>
@@ -34375,7 +34395,7 @@
         <v>1.0985499999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B38" s="2">
         <v>44390.416666666664</v>
       </c>
@@ -34401,7 +34421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -34436,7 +34456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B40" s="2">
         <v>44404</v>
       </c>
@@ -34477,7 +34497,7 @@
         <v>1.0509250000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B41" s="2">
         <v>44418</v>
       </c>
@@ -34518,7 +34538,7 @@
         <v>0.93662500000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B42" s="2">
         <v>44433</v>
       </c>
@@ -34554,7 +34574,7 @@
         <v>0.83184999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B43" s="2">
         <v>44444</v>
       </c>
@@ -34589,7 +34609,7 @@
         <v>0.98424999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B44" s="2">
         <v>44500</v>
       </c>
@@ -34630,7 +34650,7 @@
         <v>1.123696</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B45" s="2">
         <v>44514</v>
       </c>
@@ -34671,7 +34691,7 @@
         <v>0.96519999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B46" s="2">
         <v>44528</v>
       </c>
@@ -34691,7 +34711,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B47" s="2">
         <v>44543</v>
       </c>
